--- a/du.xlsx
+++ b/du.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4D32BC-3066-43EE-BAFC-40C9CC360CC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D322EA7A-24D0-4976-B972-BE1071668919}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="du" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -332,9 +332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -343,6 +345,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/du.xlsx
+++ b/du.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4D32BC-3066-43EE-BAFC-40C9CC360CC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A86002-9B10-6E47-AF74-FD2A58F27AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,15 +332,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
